--- a/vendor/103-to-152.xlsx
+++ b/vendor/103-to-152.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Desktop\SONAAC\vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/vendor/103-to-152.xlsx
+++ b/vendor/103-to-152.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="292">
   <si>
     <t>Not-available@103</t>
   </si>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,6 +1898,9 @@
       </c>
       <c r="K16" s="7">
         <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
